--- a/开发队列/RandomPhotoProject开发队列.xlsx
+++ b/开发队列/RandomPhotoProject开发队列.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21277" windowHeight="8236"/>
+    <workbookView windowWidth="17383" windowHeight="8236"/>
   </bookViews>
   <sheets>
     <sheet name="仪表盘" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>RandomPhoto 开发队列仪表盘</t>
   </si>
@@ -53,10 +53,10 @@
     <t>问题描述</t>
   </si>
   <si>
-    <t>清理包含静态资源管理部门和ajax_hlper的相关代码</t>
+    <t>前端新增调试模式</t>
   </si>
   <si>
-    <t>前端新增调试模式</t>
+    <t>优化审核系统的布局</t>
   </si>
   <si>
     <t>加入用户系统防止爬虫</t>
@@ -74,7 +74,16 @@
     <t>RandomPhoto 发展问题队列</t>
   </si>
   <si>
+    <t>对服务端整个项目的tag进行重新审核，确保所有图片的tag不会有任何的问题</t>
+  </si>
+  <si>
+    <t>训练自定义模型</t>
+  </si>
+  <si>
     <t>RandomPhoto 需要重写队列</t>
+  </si>
+  <si>
+    <t>审核系统_图片审核需要重写</t>
   </si>
 </sst>
 </file>
@@ -855,7 +864,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -920,6 +929,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -989,7 +1001,6 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FEB300"/>
       <color rgb="00FFAD4B"/>
       <color rgb="00FFBE4B"/>
       <color rgb="00599200"/>
@@ -999,6 +1010,7 @@
       <color rgb="0000FBFE"/>
       <color rgb="000095F4"/>
       <color rgb="00FE8400"/>
+      <color rgb="0000FEF5"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1264,7 +1276,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1288,7 +1300,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1885,7 +1897,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1900,7 +1912,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="00FEF5"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -2754,7 +2766,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3360,261 +3372,8 @@
       <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:spPr/>
-          <c:explosion val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0095F4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00FBFE"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00F49B"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00AC45"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="149200"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="599200"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFBE4B"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FEB300"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF541F"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:srgbClr val="FE4444"/>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:srgbClr val="832B2B"/>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="1"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>发展问题队列!$B$27:$B$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:spPr/>
           <c:explosion val="0"/>
           <c:dPt>
@@ -3840,15 +3599,15 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>发展问题队列!$C$27:$C$36</c:f>
+              <c:f>发展问题队列!$C$26:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3870,6 +3629,265 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr/>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0095F4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00FBFE"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00F49B"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00AC45"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="149200"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="599200"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFBE4B"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FEB300"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF541F"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="FE4444"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="832B2B"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>发展问题队列!$B$26:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3896,196 +3914,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="4"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="5"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="6"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="7"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="8"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="9"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -6770,8 +6598,8 @@
   <sheetPr/>
   <dimension ref="B1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -6887,7 +6715,7 @@
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
-      <c r="Q6" s="31"/>
+      <c r="Q6" s="32"/>
     </row>
     <row r="7" ht="17.25" spans="2:17">
       <c r="B7" s="20" t="s">
@@ -6901,7 +6729,7 @@
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="29"/>
+      <c r="I7" s="30"/>
       <c r="J7" s="21" t="s">
         <v>3</v>
       </c>
@@ -6913,7 +6741,7 @@
       </c>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
-      <c r="Q7" s="32"/>
+      <c r="Q7" s="33"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="17.25" spans="2:17">
       <c r="B8" s="22"/>
@@ -6923,7 +6751,7 @@
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
-      <c r="I8" s="30"/>
+      <c r="I8" s="31"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
@@ -6931,7 +6759,7 @@
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
       <c r="P8" s="23"/>
-      <c r="Q8" s="33"/>
+      <c r="Q8" s="34"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="17.25" spans="2:17">
       <c r="B9" s="22"/>
@@ -6941,7 +6769,7 @@
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
-      <c r="I9" s="30"/>
+      <c r="I9" s="31"/>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
@@ -6949,7 +6777,7 @@
       <c r="N9" s="23"/>
       <c r="O9" s="23"/>
       <c r="P9" s="23"/>
-      <c r="Q9" s="33"/>
+      <c r="Q9" s="34"/>
     </row>
     <row r="10" spans="2:17">
       <c r="B10" s="8"/>
@@ -6971,66 +6799,66 @@
     </row>
     <row r="11" spans="2:17">
       <c r="B11" s="24"/>
-      <c r="Q11" s="34"/>
+      <c r="Q11" s="35"/>
     </row>
     <row r="12" spans="2:17">
       <c r="B12" s="24"/>
-      <c r="Q12" s="34"/>
+      <c r="Q12" s="35"/>
     </row>
     <row r="13" spans="2:17">
       <c r="B13" s="24"/>
-      <c r="Q13" s="34"/>
+      <c r="Q13" s="35"/>
     </row>
     <row r="14" spans="2:17">
       <c r="B14" s="24"/>
-      <c r="Q14" s="34"/>
+      <c r="Q14" s="35"/>
     </row>
     <row r="15" spans="2:17">
       <c r="B15" s="24"/>
-      <c r="Q15" s="34"/>
+      <c r="Q15" s="35"/>
     </row>
     <row r="16" spans="2:17">
       <c r="B16" s="24"/>
-      <c r="Q16" s="34"/>
+      <c r="Q16" s="35"/>
     </row>
     <row r="17" spans="2:17">
       <c r="B17" s="24"/>
-      <c r="Q17" s="34"/>
+      <c r="Q17" s="35"/>
     </row>
     <row r="18" spans="2:17">
       <c r="B18" s="24"/>
-      <c r="Q18" s="34"/>
+      <c r="Q18" s="35"/>
     </row>
     <row r="19" spans="2:17">
       <c r="B19" s="24"/>
-      <c r="Q19" s="34"/>
+      <c r="Q19" s="35"/>
     </row>
     <row r="20" spans="2:17">
       <c r="B20" s="24"/>
-      <c r="Q20" s="34"/>
+      <c r="Q20" s="35"/>
     </row>
     <row r="21" spans="2:19">
       <c r="B21" s="24"/>
-      <c r="Q21" s="34"/>
+      <c r="Q21" s="35"/>
       <c r="S21" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:17">
       <c r="B22" s="24"/>
-      <c r="Q22" s="34"/>
+      <c r="Q22" s="35"/>
     </row>
     <row r="23" spans="2:17">
       <c r="B23" s="24"/>
-      <c r="Q23" s="34"/>
+      <c r="Q23" s="35"/>
     </row>
     <row r="24" spans="2:17">
       <c r="B24" s="24"/>
-      <c r="Q24" s="34"/>
+      <c r="Q24" s="35"/>
     </row>
     <row r="25" spans="2:17">
       <c r="B25" s="24"/>
-      <c r="Q25" s="34"/>
+      <c r="Q25" s="35"/>
     </row>
     <row r="26" ht="15.15" spans="2:17">
       <c r="B26" s="25"/>
@@ -7048,7 +6876,7 @@
       <c r="N26" s="26"/>
       <c r="O26" s="26"/>
       <c r="P26" s="26"/>
-      <c r="Q26" s="35"/>
+      <c r="Q26" s="36"/>
     </row>
     <row r="28" ht="4" customHeight="1"/>
     <row r="29" ht="21" customHeight="1" spans="2:5">
@@ -7056,14 +6884,15 @@
         <v>6</v>
       </c>
       <c r="C29" s="28"/>
-      <c r="D29" s="27">
+      <c r="D29" s="29">
         <f>COUNT(质量更新队列!B8:B24)+COUNT(BUG修复队列!B8:B24)+COUNT(发展问题队列!B8:B24)+COUNT(需要重写队列!B8:B24)</f>
-        <v>4</v>
-      </c>
-      <c r="E29" s="28"/>
+        <v>7</v>
+      </c>
+      <c r="E29" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="B7:E9"/>
     <mergeCell ref="J7:M9"/>
     <mergeCell ref="N7:Q9"/>
@@ -7081,8 +6910,8 @@
   <sheetPr/>
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7240,8 +7069,8 @@
     </row>
     <row r="8" s="2" customFormat="1" ht="15.55" spans="1:18">
       <c r="A8" s="9"/>
-      <c r="B8" s="8">
-        <v>10</v>
+      <c r="B8" s="9">
+        <v>8</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="10" t="s">
@@ -7264,8 +7093,8 @@
     </row>
     <row r="9" s="2" customFormat="1" ht="15.55" spans="1:18">
       <c r="A9" s="9"/>
-      <c r="B9" s="9">
-        <v>8</v>
+      <c r="B9" s="8">
+        <v>2</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="10" t="s">
@@ -7310,10 +7139,10 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="11" s="2" customFormat="1" spans="1:18">
       <c r="A11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -7604,7 +7433,7 @@
       </c>
       <c r="C27" s="12">
         <f>COUNTIF(B8:B24,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="2:3">
@@ -7676,13 +7505,13 @@
       </c>
       <c r="C35" s="2">
         <f>COUNTIF(B8:B24,10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B8:B24">
-    <extLst/>
-  </autoFilter>
+  <sortState ref="B8:D10">
+    <sortCondition ref="B8" descending="1"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:R6"/>
   </mergeCells>
@@ -7725,7 +7554,7 @@
   <sheetPr/>
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -8085,6 +7914,7 @@
     </row>
     <row r="18" s="2" customFormat="1" ht="15.55" spans="1:18">
       <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
       <c r="E18" s="9"/>
@@ -8316,19 +8146,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:R6"/>
   </mergeCells>
-  <conditionalFormatting sqref="B8:B17">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:B24">
+  <conditionalFormatting sqref="B8:B24">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8340,7 +8158,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B24">
+  <conditionalFormatting sqref="B8:B10 B12:B24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -8352,20 +8170,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B10 B12:B17">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B17 B18:B22 B23:B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B22 B23:B24">
       <formula1>"10,9,8,7,6,5,4,3,2,1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8379,8 +8185,8 @@
   <sheetPr/>
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -8536,9 +8342,13 @@
     </row>
     <row r="8" s="2" customFormat="1" ht="15.55" spans="1:18">
       <c r="A8" s="9"/>
-      <c r="B8" s="8"/>
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -8556,9 +8366,13 @@
     </row>
     <row r="9" s="2" customFormat="1" ht="15.55" spans="1:18">
       <c r="A9" s="9"/>
-      <c r="B9" s="8"/>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -8596,7 +8410,6 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="15.55" spans="1:18">
       <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
       <c r="E11" s="9"/>
@@ -8616,7 +8429,7 @@
     </row>
     <row r="12" s="2" customFormat="1" ht="15.55" spans="1:18">
       <c r="A12" s="9"/>
-      <c r="B12" s="2"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
       <c r="E12" s="9"/>
@@ -8880,7 +8693,7 @@
       </c>
       <c r="C26" s="12">
         <f>COUNTIF(B8:B24,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" spans="2:3">
@@ -8889,7 +8702,7 @@
       </c>
       <c r="C27" s="12">
         <f>COUNTIF(B8:B24,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" spans="2:3">
@@ -8965,10 +8778,13 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="B8:D9">
+    <sortCondition ref="B8" descending="1"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:R6"/>
   </mergeCells>
-  <conditionalFormatting sqref="B9:B18">
+  <conditionalFormatting sqref="B8:B24">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8980,29 +8796,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8 B19:B24">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B11 B13:B18">
+  <conditionalFormatting sqref="B8:B10 B12:B24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -9015,7 +8809,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8 B9:B18 B19:B22 B23:B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B22 B23:B24">
       <formula1>"10,9,8,7,6,5,4,3,2,1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9029,8 +8823,8 @@
   <sheetPr/>
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -9040,7 +8834,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -9186,9 +8980,13 @@
     </row>
     <row r="8" ht="15.55" spans="1:18">
       <c r="A8" s="9"/>
-      <c r="B8" s="8"/>
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -9206,7 +9004,7 @@
     </row>
     <row r="9" ht="15.55" spans="1:18">
       <c r="A9" s="9"/>
-      <c r="B9" s="8"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="9"/>
@@ -9246,7 +9044,6 @@
     </row>
     <row r="11" ht="15.55" spans="1:18">
       <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
       <c r="E11" s="9"/>
@@ -9266,6 +9063,7 @@
     </row>
     <row r="12" ht="15.55" spans="1:18">
       <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
       <c r="E12" s="9"/>
@@ -9556,7 +9354,7 @@
       </c>
       <c r="C29" s="2">
         <f>COUNTIF(B8:B24,4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -9617,7 +9415,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:R6"/>
   </mergeCells>
-  <conditionalFormatting sqref="B9:B18">
+  <conditionalFormatting sqref="B8:B24">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -9629,29 +9427,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8 B19:B24">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B11 B13:B18">
+  <conditionalFormatting sqref="B8:B10 B12:B24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -9664,7 +9440,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8 B9:B18 B19:B22 B23:B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B22 B23:B24">
       <formula1>"10,9,8,7,6,5,4,3,2,1"</formula1>
     </dataValidation>
   </dataValidations>

--- a/开发队列/RandomPhotoProject开发队列.xlsx
+++ b/开发队列/RandomPhotoProject开发队列.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17383" windowHeight="8236"/>
+    <workbookView windowWidth="17383" windowHeight="8236" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="仪表盘" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>RandomPhoto 开发队列仪表盘</t>
   </si>
@@ -56,9 +56,6 @@
     <t>前端新增调试模式</t>
   </si>
   <si>
-    <t>优化审核系统的布局</t>
-  </si>
-  <si>
     <t>加入用户系统防止爬虫</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
   </si>
   <si>
     <t>RandomPhoto BUG修复队列</t>
-  </si>
-  <si>
-    <t>审核系统标签图片重构编辑器接口混乱，需要统一</t>
   </si>
   <si>
     <t>RandomPhoto 发展问题队列</t>
@@ -1276,7 +1270,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2138,7 +2132,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -6598,8 +6592,8 @@
   <sheetPr/>
   <dimension ref="B1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -6886,7 +6880,7 @@
       <c r="C29" s="28"/>
       <c r="D29" s="29">
         <f>COUNT(质量更新队列!B8:B24)+COUNT(BUG修复队列!B8:B24)+COUNT(发展问题队列!B8:B24)+COUNT(需要重写队列!B8:B24)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E29" s="29"/>
     </row>
@@ -6910,8 +6904,8 @@
   <sheetPr/>
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7093,7 +7087,7 @@
     </row>
     <row r="9" s="2" customFormat="1" ht="15.55" spans="1:18">
       <c r="A9" s="9"/>
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <v>2</v>
       </c>
       <c r="C9" s="9"/>
@@ -7117,13 +7111,9 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="15.55" spans="1:18">
       <c r="A10" s="9"/>
-      <c r="B10" s="9">
-        <v>2</v>
-      </c>
+      <c r="B10" s="8"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="D10" s="10"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -7420,7 +7410,7 @@
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="12">
         <f>COUNTIF(B8:B24,1)</f>
@@ -7433,7 +7423,7 @@
       </c>
       <c r="C27" s="12">
         <f>COUNTIF(B8:B24,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:3">
@@ -7509,7 +7499,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B8:D10">
+  <sortState ref="B8:F10">
     <sortCondition ref="B8" descending="1"/>
   </sortState>
   <mergeCells count="1">
@@ -7554,8 +7544,8 @@
   <sheetPr/>
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7565,7 +7555,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -7711,13 +7701,9 @@
     </row>
     <row r="8" s="2" customFormat="1" ht="15.55" spans="1:18">
       <c r="A8" s="9"/>
-      <c r="B8" s="8">
-        <v>7</v>
-      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="D8" s="10"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -8112,7 +8098,7 @@
       </c>
       <c r="C33" s="2">
         <f>COUNTIF(B8:B25,7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:3">
@@ -8185,8 +8171,8 @@
   <sheetPr/>
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -8196,7 +8182,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -8347,7 +8333,7 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -8371,7 +8357,7 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -8824,7 +8810,7 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -8834,7 +8820,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -8985,7 +8971,7 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>

--- a/开发队列/RandomPhotoProject开发队列.xlsx
+++ b/开发队列/RandomPhotoProject开发队列.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17383" windowHeight="8236" activeTab="1"/>
+    <workbookView windowWidth="17383" windowHeight="8236"/>
   </bookViews>
   <sheets>
     <sheet name="仪表盘" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>RandomPhoto 开发队列仪表盘</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>RandomPhoto BUG修复队列</t>
+  </si>
+  <si>
+    <t>华为浏览器内底栏遮挡了搜索框</t>
   </si>
   <si>
     <t>RandomPhoto 发展问题队列</t>
@@ -995,8 +998,6 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FFAD4B"/>
-      <color rgb="00FFBE4B"/>
       <color rgb="00599200"/>
       <color rgb="00149200"/>
       <color rgb="0000AC45"/>
@@ -1005,6 +1006,8 @@
       <color rgb="000095F4"/>
       <color rgb="00FE8400"/>
       <color rgb="0000FEF5"/>
+      <color rgb="00039200"/>
+      <color rgb="00FF6F29"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1921,7 +1924,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="00F49B"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1936,9 +1939,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="039200"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1953,9 +1954,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="039200"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1970,9 +1969,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="599200"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1987,10 +1984,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FFBE4B"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -2005,10 +1999,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FE8400"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -2023,10 +2014,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF6F29"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -2041,9 +2029,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -2126,7 +2112,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3375,7 +3361,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="0095F4"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -3390,7 +3376,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="00FBFE"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -3405,7 +3391,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="00F49B"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -3420,9 +3406,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00AC45"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -3437,9 +3421,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="149200"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -3454,9 +3436,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="599200"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -3471,10 +3451,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -3489,10 +3466,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FE8400"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -3507,10 +3481,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF6F29"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -3525,9 +3496,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -6592,8 +6561,8 @@
   <sheetPr/>
   <dimension ref="B1:S29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -6880,7 +6849,7 @@
       <c r="C29" s="28"/>
       <c r="D29" s="29">
         <f>COUNT(质量更新队列!B8:B24)+COUNT(BUG修复队列!B8:B24)+COUNT(发展问题队列!B8:B24)+COUNT(需要重写队列!B8:B24)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E29" s="29"/>
     </row>
@@ -6904,7 +6873,7 @@
   <sheetPr/>
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -7545,7 +7514,7 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7701,9 +7670,13 @@
     </row>
     <row r="8" s="2" customFormat="1" ht="15.55" spans="1:18">
       <c r="A8" s="9"/>
-      <c r="B8" s="8"/>
+      <c r="B8" s="8">
+        <v>5</v>
+      </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -8080,7 +8053,7 @@
       </c>
       <c r="C31" s="2">
         <f>COUNTIF(B8:B25,5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:3">
@@ -8182,7 +8155,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -8333,7 +8306,7 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -8357,7 +8330,7 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -8820,7 +8793,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -8971,7 +8944,7 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>

--- a/开发队列/RandomPhotoProject开发队列.xlsx
+++ b/开发队列/RandomPhotoProject开发队列.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17383" windowHeight="8236"/>
+    <workbookView windowWidth="21277" windowHeight="8236"/>
   </bookViews>
   <sheets>
     <sheet name="仪表盘" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>RandomPhoto 开发队列仪表盘</t>
   </si>
@@ -53,6 +53,12 @@
     <t>问题描述</t>
   </si>
   <si>
+    <t>photoinfo页面应该对风车进行优化</t>
+  </si>
+  <si>
+    <t>upload页面需要把upload改成svg</t>
+  </si>
+  <si>
     <t>前端新增调试模式</t>
   </si>
   <si>
@@ -63,6 +69,9 @@
   </si>
   <si>
     <t>RandomPhoto BUG修复队列</t>
+  </si>
+  <si>
+    <t>440宽度屏幕下应该隐藏风车</t>
   </si>
   <si>
     <t>华为浏览器内底栏遮挡了搜索框</t>
@@ -861,7 +870,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -900,6 +909,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1282,16 +1292,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2115,7 +2125,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -6561,8 +6571,8 @@
   <sheetPr/>
   <dimension ref="B1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -6663,84 +6673,84 @@
       <c r="Q5" s="14"/>
     </row>
     <row r="6" ht="15.15" spans="2:17">
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="32"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="33"/>
     </row>
     <row r="7" ht="17.25" spans="2:17">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="21" t="s">
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21" t="s">
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="33"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="34"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="17.25" spans="2:17">
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="34"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="35"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="17.25" spans="2:17">
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="34"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="35"/>
     </row>
     <row r="10" spans="2:17">
       <c r="B10" s="8"/>
@@ -6761,97 +6771,97 @@
       <c r="Q10" s="9"/>
     </row>
     <row r="11" spans="2:17">
-      <c r="B11" s="24"/>
-      <c r="Q11" s="35"/>
+      <c r="B11" s="25"/>
+      <c r="Q11" s="36"/>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="24"/>
-      <c r="Q12" s="35"/>
+      <c r="B12" s="25"/>
+      <c r="Q12" s="36"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="24"/>
-      <c r="Q13" s="35"/>
+      <c r="B13" s="25"/>
+      <c r="Q13" s="36"/>
     </row>
     <row r="14" spans="2:17">
-      <c r="B14" s="24"/>
-      <c r="Q14" s="35"/>
+      <c r="B14" s="25"/>
+      <c r="Q14" s="36"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="24"/>
-      <c r="Q15" s="35"/>
+      <c r="B15" s="25"/>
+      <c r="Q15" s="36"/>
     </row>
     <row r="16" spans="2:17">
-      <c r="B16" s="24"/>
-      <c r="Q16" s="35"/>
+      <c r="B16" s="25"/>
+      <c r="Q16" s="36"/>
     </row>
     <row r="17" spans="2:17">
-      <c r="B17" s="24"/>
-      <c r="Q17" s="35"/>
+      <c r="B17" s="25"/>
+      <c r="Q17" s="36"/>
     </row>
     <row r="18" spans="2:17">
-      <c r="B18" s="24"/>
-      <c r="Q18" s="35"/>
+      <c r="B18" s="25"/>
+      <c r="Q18" s="36"/>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="24"/>
-      <c r="Q19" s="35"/>
+      <c r="B19" s="25"/>
+      <c r="Q19" s="36"/>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="24"/>
-      <c r="Q20" s="35"/>
+      <c r="B20" s="25"/>
+      <c r="Q20" s="36"/>
     </row>
     <row r="21" spans="2:19">
-      <c r="B21" s="24"/>
-      <c r="Q21" s="35"/>
+      <c r="B21" s="25"/>
+      <c r="Q21" s="36"/>
       <c r="S21" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:17">
-      <c r="B22" s="24"/>
-      <c r="Q22" s="35"/>
+      <c r="B22" s="25"/>
+      <c r="Q22" s="36"/>
     </row>
     <row r="23" spans="2:17">
-      <c r="B23" s="24"/>
-      <c r="Q23" s="35"/>
+      <c r="B23" s="25"/>
+      <c r="Q23" s="36"/>
     </row>
     <row r="24" spans="2:17">
-      <c r="B24" s="24"/>
-      <c r="Q24" s="35"/>
+      <c r="B24" s="25"/>
+      <c r="Q24" s="36"/>
     </row>
     <row r="25" spans="2:17">
-      <c r="B25" s="24"/>
-      <c r="Q25" s="35"/>
+      <c r="B25" s="25"/>
+      <c r="Q25" s="36"/>
     </row>
     <row r="26" ht="15.15" spans="2:17">
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="36"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="37"/>
     </row>
     <row r="28" ht="4" customHeight="1"/>
     <row r="29" ht="21" customHeight="1" spans="2:5">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29">
+      <c r="C29" s="29"/>
+      <c r="D29" s="30">
         <f>COUNT(质量更新队列!B8:B24)+COUNT(BUG修复队列!B8:B24)+COUNT(发展问题队列!B8:B24)+COUNT(需要重写队列!B8:B24)</f>
-        <v>6</v>
-      </c>
-      <c r="E29" s="29"/>
+        <v>9</v>
+      </c>
+      <c r="E29" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6874,7 +6884,7 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7032,8 +7042,8 @@
     </row>
     <row r="8" s="2" customFormat="1" ht="15.55" spans="1:18">
       <c r="A8" s="9"/>
-      <c r="B8" s="9">
-        <v>8</v>
+      <c r="B8" s="8">
+        <v>7</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="10" t="s">
@@ -7057,7 +7067,7 @@
     <row r="9" s="2" customFormat="1" ht="15.55" spans="1:18">
       <c r="A9" s="9"/>
       <c r="B9" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="10" t="s">
@@ -7080,9 +7090,13 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="15.55" spans="1:18">
       <c r="A10" s="9"/>
-      <c r="B10" s="8"/>
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -7098,10 +7112,15 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:18">
+    <row r="11" s="2" customFormat="1" ht="15.55" spans="1:18">
       <c r="A11" s="9"/>
+      <c r="B11" s="18">
+        <v>2</v>
+      </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="D11" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -7379,7 +7398,7 @@
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C26" s="12">
         <f>COUNTIF(B8:B24,1)</f>
@@ -7419,7 +7438,7 @@
       </c>
       <c r="C30" s="2">
         <f>COUNTIF(B8:B24,5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -7437,7 +7456,7 @@
       </c>
       <c r="C32" s="2">
         <f>COUNTIF(B8:B24,7)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="2:3">
@@ -7446,7 +7465,7 @@
       </c>
       <c r="C33" s="2">
         <f>COUNTIF(B8:B24,8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:3">
@@ -7468,7 +7487,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B8:F10">
+  <sortState ref="B8:E11">
     <sortCondition ref="B8" descending="1"/>
   </sortState>
   <mergeCells count="1">
@@ -7514,7 +7533,7 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7524,7 +7543,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -7670,12 +7689,12 @@
     </row>
     <row r="8" s="2" customFormat="1" ht="15.55" spans="1:18">
       <c r="A8" s="9"/>
-      <c r="B8" s="8">
-        <v>5</v>
+      <c r="B8" s="9">
+        <v>6</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -7694,9 +7713,13 @@
     </row>
     <row r="9" s="2" customFormat="1" ht="15.55" spans="1:18">
       <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -8062,7 +8085,7 @@
       </c>
       <c r="C32" s="2">
         <f>COUNTIF(B8:B25,6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:3">
@@ -8102,6 +8125,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="B8:F9">
+    <sortCondition ref="B8" descending="1"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:R6"/>
   </mergeCells>
@@ -8155,7 +8181,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -8306,7 +8332,7 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -8330,7 +8356,7 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -8793,7 +8819,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -8944,7 +8970,7 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>

--- a/开发队列/RandomPhotoProject开发队列.xlsx
+++ b/开发队列/RandomPhotoProject开发队列.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21277" windowHeight="8236"/>
+    <workbookView windowWidth="12521" windowHeight="8089" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="仪表盘" sheetId="5" r:id="rId1"/>
@@ -80,7 +80,7 @@
     <t>RandomPhoto 发展问题队列</t>
   </si>
   <si>
-    <t>对服务端整个项目的tag进行重新审核，确保所有图片的tag不会有任何的问题</t>
+    <t>路径控制很混乱</t>
   </si>
   <si>
     <t>训练自定义模型</t>
@@ -6207,8 +6207,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="665480" y="1958975"/>
-        <a:ext cx="2609215" cy="2913380"/>
+        <a:off x="654050" y="2021840"/>
+        <a:ext cx="2574925" cy="3027680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6237,8 +6237,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3281680" y="1960245"/>
-        <a:ext cx="2837180" cy="2917190"/>
+        <a:off x="3228975" y="2023110"/>
+        <a:ext cx="2787015" cy="3031490"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6267,8 +6267,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8806815" y="1954530"/>
-        <a:ext cx="2377440" cy="2926080"/>
+        <a:off x="8658225" y="2017395"/>
+        <a:ext cx="2331720" cy="3040380"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6297,8 +6297,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6132830" y="1960880"/>
-        <a:ext cx="2698115" cy="2919730"/>
+        <a:off x="6029960" y="2023745"/>
+        <a:ext cx="2652395" cy="3034030"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6571,11 +6571,11 @@
   <sheetPr/>
   <dimension ref="B1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+    <sheetView topLeftCell="B8" workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
@@ -6672,7 +6672,7 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="14"/>
     </row>
-    <row r="6" ht="15.15" spans="2:17">
+    <row r="6" ht="15.75" spans="2:17">
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -6690,7 +6690,7 @@
       <c r="P6" s="20"/>
       <c r="Q6" s="33"/>
     </row>
-    <row r="7" ht="17.25" spans="2:17">
+    <row r="7" ht="17.5" spans="2:17">
       <c r="B7" s="21" t="s">
         <v>1</v>
       </c>
@@ -6716,7 +6716,7 @@
       <c r="P7" s="22"/>
       <c r="Q7" s="34"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="17.25" spans="2:17">
+    <row r="8" s="1" customFormat="1" ht="17.5" spans="2:17">
       <c r="B8" s="23"/>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -6734,7 +6734,7 @@
       <c r="P8" s="24"/>
       <c r="Q8" s="35"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="17.25" spans="2:17">
+    <row r="9" s="1" customFormat="1" ht="17.5" spans="2:17">
       <c r="B9" s="23"/>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
@@ -6833,7 +6833,7 @@
       <c r="B25" s="25"/>
       <c r="Q25" s="36"/>
     </row>
-    <row r="26" ht="15.15" spans="2:17">
+    <row r="26" ht="15.75" spans="2:17">
       <c r="B26" s="26"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -6887,7 +6887,7 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="9" style="11"/>
@@ -7040,7 +7040,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="8" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A8" s="9"/>
       <c r="B8" s="8">
         <v>7</v>
@@ -7064,7 +7064,7 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="9" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A9" s="9"/>
       <c r="B9" s="9">
         <v>7</v>
@@ -7088,7 +7088,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="10" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A10" s="9"/>
       <c r="B10" s="9">
         <v>5</v>
@@ -7112,7 +7112,7 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="11" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A11" s="9"/>
       <c r="B11" s="18">
         <v>2</v>
@@ -7136,7 +7136,7 @@
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="12" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7156,7 +7156,7 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="13" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7176,7 +7176,7 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="14" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7196,7 +7196,7 @@
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="15" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7216,7 +7216,7 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="16" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7236,7 +7236,7 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="17" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -7256,7 +7256,7 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
     </row>
-    <row r="18" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="18" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -7276,7 +7276,7 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="19" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -7296,7 +7296,7 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="20" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -7316,7 +7316,7 @@
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="21" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -7336,7 +7336,7 @@
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="22" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -7356,7 +7356,7 @@
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
     </row>
-    <row r="23" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="23" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -7376,7 +7376,7 @@
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
     </row>
-    <row r="24" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="24" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -7536,7 +7536,7 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
@@ -7687,7 +7687,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="8" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A8" s="9"/>
       <c r="B8" s="9">
         <v>6</v>
@@ -7711,7 +7711,7 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="9" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A9" s="9"/>
       <c r="B9" s="8">
         <v>5</v>
@@ -7735,7 +7735,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="10" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7755,7 +7755,7 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="11" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
@@ -7774,7 +7774,7 @@
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="12" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7794,7 +7794,7 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="13" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7814,7 +7814,7 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="14" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7834,7 +7834,7 @@
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="15" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7854,7 +7854,7 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="16" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7874,7 +7874,7 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="17" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -7894,7 +7894,7 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
     </row>
-    <row r="18" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="18" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -7914,7 +7914,7 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="19" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -7934,7 +7934,7 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="20" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -7954,7 +7954,7 @@
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="21" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -7974,7 +7974,7 @@
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="22" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -7994,7 +7994,7 @@
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
     </row>
-    <row r="23" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="23" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -8014,7 +8014,7 @@
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
     </row>
-    <row r="24" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="24" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -8170,11 +8170,11 @@
   <sheetPr/>
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
@@ -8325,7 +8325,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="8" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A8" s="9"/>
       <c r="B8" s="9">
         <v>2</v>
@@ -8349,7 +8349,7 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="9" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A9" s="9"/>
       <c r="B9" s="8">
         <v>1</v>
@@ -8373,7 +8373,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="10" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -8393,7 +8393,7 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="11" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
@@ -8412,7 +8412,7 @@
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="12" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -8432,7 +8432,7 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="13" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -8452,7 +8452,7 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="14" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -8472,7 +8472,7 @@
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="15" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -8492,7 +8492,7 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="16" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -8512,7 +8512,7 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="17" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -8532,7 +8532,7 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
     </row>
-    <row r="18" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="18" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -8552,7 +8552,7 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="19" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -8572,7 +8572,7 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="20" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -8592,7 +8592,7 @@
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="21" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -8612,7 +8612,7 @@
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="22" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -8632,7 +8632,7 @@
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
     </row>
-    <row r="23" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="23" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -8652,7 +8652,7 @@
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
     </row>
-    <row r="24" s="2" customFormat="1" ht="15.55" spans="1:18">
+    <row r="24" s="2" customFormat="1" ht="16.25" spans="1:18">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -8812,7 +8812,7 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
@@ -8963,7 +8963,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" ht="15.55" spans="1:18">
+    <row r="8" ht="16.25" spans="1:18">
       <c r="A8" s="9"/>
       <c r="B8" s="8">
         <v>4</v>
@@ -8987,7 +8987,7 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
     </row>
-    <row r="9" ht="15.55" spans="1:18">
+    <row r="9" ht="16.25" spans="1:18">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -9007,7 +9007,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
     </row>
-    <row r="10" ht="15.55" spans="1:18">
+    <row r="10" ht="16.25" spans="1:18">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -9027,7 +9027,7 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
     </row>
-    <row r="11" ht="15.55" spans="1:18">
+    <row r="11" ht="16.25" spans="1:18">
       <c r="A11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
@@ -9046,7 +9046,7 @@
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
     </row>
-    <row r="12" ht="15.55" spans="1:18">
+    <row r="12" ht="16.25" spans="1:18">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -9066,7 +9066,7 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
     </row>
-    <row r="13" ht="15.55" spans="1:18">
+    <row r="13" ht="16.25" spans="1:18">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -9086,7 +9086,7 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
     </row>
-    <row r="14" ht="15.55" spans="1:18">
+    <row r="14" ht="16.25" spans="1:18">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -9106,7 +9106,7 @@
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
     </row>
-    <row r="15" ht="15.55" spans="1:18">
+    <row r="15" ht="16.25" spans="1:18">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -9126,7 +9126,7 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
     </row>
-    <row r="16" ht="15.55" spans="1:18">
+    <row r="16" ht="16.25" spans="1:18">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -9146,7 +9146,7 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
     </row>
-    <row r="17" ht="15.55" spans="1:18">
+    <row r="17" ht="16.25" spans="1:18">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -9166,7 +9166,7 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
     </row>
-    <row r="18" ht="15.55" spans="1:18">
+    <row r="18" ht="16.25" spans="1:18">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -9186,7 +9186,7 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
     </row>
-    <row r="19" ht="15.55" spans="1:18">
+    <row r="19" ht="16.25" spans="1:18">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -9206,7 +9206,7 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
     </row>
-    <row r="20" ht="15.55" spans="1:18">
+    <row r="20" ht="16.25" spans="1:18">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -9226,7 +9226,7 @@
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
     </row>
-    <row r="21" ht="15.55" spans="1:18">
+    <row r="21" ht="16.25" spans="1:18">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -9246,7 +9246,7 @@
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
     </row>
-    <row r="22" ht="15.55" spans="1:18">
+    <row r="22" ht="16.25" spans="1:18">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -9266,7 +9266,7 @@
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
     </row>
-    <row r="23" ht="15.55" spans="1:18">
+    <row r="23" ht="16.25" spans="1:18">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -9286,7 +9286,7 @@
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
     </row>
-    <row r="24" ht="15.55" spans="1:18">
+    <row r="24" ht="16.25" spans="1:18">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
